--- a/resources/experiment 2/metrics/MAPE/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Macroalbuminuria (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.425268078940471e+16</v>
+        <v>1.42526807894047e+16</v>
       </c>
       <c r="C2" t="n">
         <v>1.425268078940471e+16</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26411350994183.46</v>
+        <v>396653422634.5623</v>
       </c>
       <c r="C3" t="n">
-        <v>26411350994183.46</v>
+        <v>356654758167.214</v>
       </c>
       <c r="D3" t="n">
-        <v>26411350994183.46</v>
+        <v>1775170097897886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174291323523207.6</v>
+        <v>458318030355.061</v>
       </c>
       <c r="C4" t="n">
-        <v>174127389557109.8</v>
+        <v>379616954435.5107</v>
       </c>
       <c r="D4" t="n">
-        <v>174127389557109.8</v>
+        <v>458318030355.0984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2455842198387284</v>
+        <v>57565325496205.09</v>
       </c>
       <c r="C5" t="n">
-        <v>2455842198387284</v>
+        <v>76649235372063.02</v>
       </c>
       <c r="D5" t="n">
-        <v>2455842198387284</v>
+        <v>433340205936479.9</v>
       </c>
     </row>
   </sheetData>
